--- a/todolist_task/战役时间线.xlsx
+++ b/todolist_task/战役时间线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4246" uniqueCount="111">
   <si>
     <t>标题</t>
   </si>
@@ -215,13 +215,22 @@
     <t>换挂反辐射挂载，换后备飞行员（CMO QTR）</t>
   </si>
   <si>
+    <t>反辐射巡逻-转场</t>
+  </si>
+  <si>
+    <t>从机场转场至巡逻空域</t>
+  </si>
+  <si>
     <t>反辐射巡逻</t>
+  </si>
+  <si>
+    <t>使用反辐射吊舱搜索并消灭临时开机的野战雷达</t>
   </si>
   <si>
     <t>多用途团2</t>
   </si>
   <si>
-    <t>换挂制导炸弹，小修，飞行员小休息（CMO SURGE）</t>
+    <t>换挂反辐射导弹，小修，飞行员小休息（CMO SURGE）</t>
   </si>
   <si>
     <t>多用途团3</t>
@@ -269,7 +278,21 @@
     <t>渡海登陆金门</t>
   </si>
   <si>
+    <t>表面战斗</t>
+  </si>
+  <si>
+    <t>在空炮火力支援下执行地表战斗。
+所有支援
+攻击-2 2架 导弹36枚
+攻击-11 2架 导弹8枚 先进光学和雷达跟踪
+155火炮 不限量</t>
+  </si>
+  <si>
     <t>坑道战斗</t>
+  </si>
+  <si>
+    <t>遥控攻击无人机 288架
+重装越野无人车（楼梯特化版）12架（直升机空投）</t>
   </si>
   <si>
     <t>74集团军特战大队1</t>
@@ -279,6 +302,31 @@
   </si>
   <si>
     <t>空警-2000</t>
+  </si>
+  <si>
+    <t>台北登陆舰队</t>
+  </si>
+  <si>
+    <t>075海南舰 055南昌舰 052D西宁舰 052D乌鲁木齐舰 052E承德舰 071四艘任配 054按需</t>
+  </si>
+  <si>
+    <t>台中登陆舰队</t>
+  </si>
+  <si>
+    <t>075广东舰 055武昌舰 052D昆明舰 052D（东海舰队任意） 052E甘孜舰 071四艘任配 054按需
+为什么选这几艘舰？只是因为它们和蓝方最强驱护战力名字一样</t>
+  </si>
+  <si>
+    <t>辽宁舰打击群</t>
+  </si>
+  <si>
+    <t>辽宁舰 055两艘任配 052D两艘任配 054按需</t>
+  </si>
+  <si>
+    <t>山东舰打击群</t>
+  </si>
+  <si>
+    <t>山东舰 055两艘任配 052D两艘任配 054按需</t>
   </si>
   <si>
     <t>金门</t>
@@ -316,9 +364,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -337,7 +385,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -345,31 +392,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +402,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,7 +423,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,17 +431,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,11 +468,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,6 +481,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,6 +520,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -490,7 +538,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,175 +712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,17 +729,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -706,6 +743,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,21 +782,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,6 +818,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -789,10 +837,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,133 +849,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,10 +1317,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD79"/>
+  <dimension ref="A1:XFD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1859,9 +1907,7 @@
       <c r="H44" t="s">
         <v>47</v>
       </c>
-      <c r="I44" t="s">
-        <v>46</v>
-      </c>
+      <c r="I44"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" t="s">
@@ -18359,42 +18405,46 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
-      <c r="C60">
-        <v>29</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="F60" s="1">
+        <v>44378.1527777778</v>
+      </c>
+      <c r="G60" s="1">
+        <v>44378.1666666667</v>
+      </c>
+      <c r="H60" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>44378.0833333333</v>
+        <v>44378.1666666667</v>
+      </c>
+      <c r="G61" s="1">
+        <v>44378.2361111111</v>
       </c>
       <c r="H61" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C62">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -18402,96 +18452,90 @@
       <c r="F62" s="1">
         <v>44378.0833333333</v>
       </c>
-      <c r="G62" s="1">
-        <v>44378.1111111111</v>
-      </c>
       <c r="H62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C63">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="F63" s="1">
+        <v>44378.0833333333</v>
+      </c>
+      <c r="G63" s="1">
         <v>44378.1111111111</v>
       </c>
-      <c r="G63" s="1">
-        <v>44378.2361111111</v>
-      </c>
       <c r="H63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C64">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>44378.0833333333</v>
+        <v>44378.1111111111</v>
+      </c>
+      <c r="G64" s="1">
+        <v>44378.2361111111</v>
       </c>
       <c r="H64" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65">
-        <v>34</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F65" s="1">
-        <v>44378.0833333333</v>
+        <v>44378.2361111111</v>
       </c>
       <c r="G65" s="1">
-        <v>44378.1111111111</v>
+        <v>44378.1666666667</v>
       </c>
       <c r="H65" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C66">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>44378.1111111111</v>
+        <v>44378.1666666667</v>
       </c>
       <c r="G66" s="1">
-        <v>44378.5277777778</v>
+        <v>44378.2361111111</v>
       </c>
       <c r="H66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -18500,15 +18544,15 @@
         <v>44378.0833333333</v>
       </c>
       <c r="H67" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C68">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -18516,33 +18560,39 @@
       <c r="F68" s="1">
         <v>44378.0833333333</v>
       </c>
+      <c r="G68" s="1">
+        <v>44378.1111111111</v>
+      </c>
       <c r="H68" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C69">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>44378.0833333333</v>
+        <v>44378.1111111111</v>
+      </c>
+      <c r="G69" s="1">
+        <v>44378.5277777778</v>
       </c>
       <c r="H69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C70">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -18556,10 +18606,10 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -18573,10 +18623,10 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -18585,53 +18635,149 @@
         <v>44378.0833333333</v>
       </c>
       <c r="H72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
         <v>79</v>
       </c>
+      <c r="C73">
+        <v>39</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>44378.0833333333</v>
+      </c>
+      <c r="H73" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="73" ht="54" spans="1:8">
-      <c r="A73" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
         <v>80</v>
       </c>
-      <c r="H73" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>82</v>
+      <c r="C74">
+        <v>40</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
       </c>
       <c r="F74" s="1">
         <v>44378.0833333333</v>
       </c>
-      <c r="G74" s="1">
-        <v>44378.1111111111</v>
+      <c r="H74" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75">
+        <v>41</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>44378.0833333333</v>
+      </c>
+      <c r="H75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" ht="54" spans="1:8">
+      <c r="A76" t="s">
         <v>83</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="H76" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>85</v>
       </c>
+      <c r="F77" s="1">
+        <v>44378.0833333333</v>
+      </c>
+      <c r="G77" s="1">
+        <v>44378.1111111111</v>
+      </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="5" t="s">
-        <v>83</v>
+    <row r="78" ht="67.5" spans="1:8">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>86</v>
+    <row r="79" ht="27" spans="1:8">
+      <c r="A79" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="H84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" ht="27" spans="1:8">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="H86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="H87" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -18679,52 +18825,52 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
